--- a/LR3/table_1_102.xlsx
+++ b/LR3/table_1_102.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>№ квартиры</t>
   </si>
@@ -156,9 +156,6 @@
     <t>Шаймарданова</t>
   </si>
   <si>
-    <t>Куропаткин 1</t>
-  </si>
-  <si>
     <t>Куропаткин 2</t>
   </si>
   <si>
@@ -168,10 +165,10 @@
     <t>Средняя площадь, кв.м.</t>
   </si>
   <si>
-    <t>Максимальный срок просрочки, дней</t>
-  </si>
-  <si>
     <t>Максимальная сумма, руб.</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрочки, дней.</t>
   </si>
 </sst>
 </file>
@@ -468,7 +465,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="57" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -476,7 +473,7 @@
     <col min="1" max="1" width="14" style="1" customWidth="1"/>
     <col min="2" max="2" width="38.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" style="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.44140625" style="1" customWidth="1"/>
@@ -537,7 +534,7 @@
         <v>70</v>
       </c>
       <c r="D3" s="2">
-        <f>1.1*$A$1</f>
+        <f>1.1*102</f>
         <v>112.2</v>
       </c>
       <c r="E3" s="2">
@@ -551,35 +548,35 @@
         <v>44805</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H38" si="1">IF(F3&gt;=G3, 0, G3-F3)</f>
+        <f>IF(G3&gt;F3, G3-F3, 0)</f>
         <v>0</v>
       </c>
       <c r="I3" s="4">
         <v>10</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J38" si="2">H3*I3</f>
+        <f t="shared" ref="J3:J38" si="1">H3*I3</f>
         <v>0</v>
       </c>
       <c r="K3" s="2">
-        <f t="shared" ref="K3:K38" si="3">E3+J3</f>
+        <f t="shared" ref="K3:K38" si="2">E3+J3</f>
         <v>7854</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <f t="shared" ref="A4:A38" si="4">A3+1</f>
+        <f t="shared" ref="A4:A38" si="3">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" ref="C4:C38" si="5">C3-0.5</f>
+        <f t="shared" ref="C4:C38" si="4">C3-0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4" s="2">
-        <f>1.1*$A$1</f>
+        <f t="shared" ref="D4:D32" si="5">1.1*102</f>
         <v>112.2</v>
       </c>
       <c r="E4" s="2">
@@ -587,14 +584,15 @@
         <v>7797.9000000000005</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" ref="F4:F38" si="6">F3</f>
+        <f>F3</f>
         <v>44813</v>
       </c>
       <c r="G4" s="3">
+        <f>G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H4:H38" si="6">IF(G4&gt;F4, G4-F4, 0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="4">
@@ -602,28 +600,28 @@
         <v>10</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7797.9000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" ref="D4:D38" si="8">1.1*$A$1</f>
+        <f t="shared" si="5"/>
         <v>112.2</v>
       </c>
       <c r="E5" s="2">
@@ -631,14 +629,15 @@
         <v>7741.8</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="F5:F38" si="8">F4</f>
         <v>44813</v>
       </c>
       <c r="G5" s="3">
+        <f t="shared" ref="G5:G38" si="9">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I5" s="4">
@@ -646,28 +645,28 @@
         <v>10</v>
       </c>
       <c r="J5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7741.8</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>112.2</v>
       </c>
       <c r="E6" s="2">
@@ -675,14 +674,15 @@
         <v>7685.7</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G6" s="3">
+        <f t="shared" si="9"/>
         <v>44808</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I6" s="4">
@@ -690,28 +690,28 @@
         <v>10</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7685.7</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>112.2</v>
       </c>
       <c r="E7" s="2">
@@ -719,14 +719,15 @@
         <v>7629.6</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G7" s="3">
+        <f t="shared" si="9"/>
         <v>44809</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I7" s="4">
@@ -734,28 +735,28 @@
         <v>10</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7629.6</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>112.2</v>
       </c>
       <c r="E8" s="2">
@@ -763,14 +764,15 @@
         <v>7573.5</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G8" s="3">
+        <f t="shared" si="9"/>
         <v>44810</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I8" s="4">
@@ -778,28 +780,28 @@
         <v>10</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7573.5</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>112.2</v>
       </c>
       <c r="E9" s="2">
@@ -807,14 +809,15 @@
         <v>7517.4000000000005</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G9" s="3">
+        <f t="shared" si="9"/>
         <v>44811</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I9" s="4">
@@ -822,28 +825,28 @@
         <v>10</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7517.4000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>112.2</v>
       </c>
       <c r="E10" s="2">
@@ -851,14 +854,15 @@
         <v>7461.3</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G10" s="3">
+        <f t="shared" si="9"/>
         <v>44812</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I10" s="4">
@@ -866,28 +870,28 @@
         <v>10</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7461.3</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>112.2</v>
       </c>
       <c r="E11" s="2">
@@ -895,14 +899,15 @@
         <v>7405.2</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G11" s="3">
+        <f t="shared" si="9"/>
         <v>44813</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I11" s="4">
@@ -910,28 +915,28 @@
         <v>10</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7405.2</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>112.2</v>
       </c>
       <c r="E12" s="2">
@@ -939,14 +944,15 @@
         <v>7349.1</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G12" s="3">
+        <f t="shared" si="9"/>
         <v>44814</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I12" s="4">
@@ -954,28 +960,28 @@
         <v>10</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7359.1</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>112.2</v>
       </c>
       <c r="E13" s="2">
@@ -983,14 +989,15 @@
         <v>7293</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G13" s="3">
+        <f t="shared" si="9"/>
         <v>44815</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I13" s="4">
@@ -998,28 +1005,28 @@
         <v>10</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7313</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>112.2</v>
       </c>
       <c r="E14" s="2">
@@ -1027,14 +1034,15 @@
         <v>7236.9000000000005</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G14" s="3">
+        <f t="shared" si="9"/>
         <v>44816</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="I14" s="4">
@@ -1042,28 +1050,28 @@
         <v>10</v>
       </c>
       <c r="J14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7266.9000000000005</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>112.2</v>
       </c>
       <c r="E15" s="2">
@@ -1071,14 +1079,15 @@
         <v>7180.8</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G15" s="3">
+        <f t="shared" si="9"/>
         <v>44817</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="I15" s="4">
@@ -1086,28 +1095,28 @@
         <v>10</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7220.8</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>112.2</v>
       </c>
       <c r="E16" s="2">
@@ -1115,14 +1124,15 @@
         <v>7124.7</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G16" s="3">
+        <f t="shared" si="9"/>
         <v>44818</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="I16" s="4">
@@ -1130,28 +1140,28 @@
         <v>10</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7174.7</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>112.2</v>
       </c>
       <c r="E17" s="2">
@@ -1159,14 +1169,15 @@
         <v>7068.6</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G17" s="3">
+        <f t="shared" si="9"/>
         <v>44819</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I17" s="4">
@@ -1174,28 +1185,28 @@
         <v>10</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="K17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7128.6</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>112.2</v>
       </c>
       <c r="E18" s="2">
@@ -1203,14 +1214,15 @@
         <v>7012.5</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G18" s="3">
+        <f t="shared" si="9"/>
         <v>44820</v>
       </c>
       <c r="H18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I18" s="4">
@@ -1218,28 +1230,28 @@
         <v>10</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7082.5</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>112.2</v>
       </c>
       <c r="E19" s="2">
@@ -1247,14 +1259,15 @@
         <v>6956.4000000000005</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G19" s="3">
+        <f t="shared" si="9"/>
         <v>44821</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="I19" s="4">
@@ -1262,28 +1275,28 @@
         <v>10</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7036.4000000000005</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>112.2</v>
       </c>
       <c r="E20" s="2">
@@ -1291,14 +1304,15 @@
         <v>6900.3</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G20" s="3">
+        <f t="shared" si="9"/>
         <v>44822</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="I20" s="4">
@@ -1306,28 +1320,28 @@
         <v>10</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6990.3</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>112.2</v>
       </c>
       <c r="E21" s="2">
@@ -1335,14 +1349,15 @@
         <v>6844.2</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G21" s="3">
+        <f t="shared" si="9"/>
         <v>44823</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="I21" s="4">
@@ -1350,28 +1365,28 @@
         <v>10</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="K21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6944.2</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>112.2</v>
       </c>
       <c r="E22" s="2">
@@ -1379,14 +1394,15 @@
         <v>6788.1</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G22" s="3">
+        <f t="shared" si="9"/>
         <v>44824</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="I22" s="4">
@@ -1394,28 +1410,28 @@
         <v>10</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6898.1</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>112.2</v>
       </c>
       <c r="E23" s="2">
@@ -1423,14 +1439,15 @@
         <v>6732</v>
       </c>
       <c r="F23" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G23" s="3">
+        <f t="shared" si="9"/>
         <v>44825</v>
       </c>
       <c r="H23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="I23" s="4">
@@ -1438,28 +1455,28 @@
         <v>10</v>
       </c>
       <c r="J23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6852</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>112.2</v>
       </c>
       <c r="E24" s="2">
@@ -1467,14 +1484,15 @@
         <v>6675.9000000000005</v>
       </c>
       <c r="F24" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G24" s="3">
+        <f t="shared" si="9"/>
         <v>44826</v>
       </c>
       <c r="H24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="I24" s="4">
@@ -1482,28 +1500,28 @@
         <v>10</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6805.9000000000005</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>112.2</v>
       </c>
       <c r="E25" s="2">
@@ -1511,14 +1529,15 @@
         <v>6619.8</v>
       </c>
       <c r="F25" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G25" s="3">
+        <f t="shared" si="9"/>
         <v>44827</v>
       </c>
       <c r="H25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="I25" s="4">
@@ -1526,28 +1545,28 @@
         <v>10</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6759.8</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>112.2</v>
       </c>
       <c r="E26" s="2">
@@ -1555,14 +1574,15 @@
         <v>6563.7</v>
       </c>
       <c r="F26" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G26" s="3">
+        <f t="shared" si="9"/>
         <v>44828</v>
       </c>
       <c r="H26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="I26" s="4">
@@ -1570,28 +1590,28 @@
         <v>10</v>
       </c>
       <c r="J26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="K26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6713.7</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>112.2</v>
       </c>
       <c r="E27" s="2">
@@ -1599,14 +1619,15 @@
         <v>6507.6</v>
       </c>
       <c r="F27" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G27" s="3">
+        <f t="shared" si="9"/>
         <v>44829</v>
       </c>
       <c r="H27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="I27" s="4">
@@ -1614,28 +1635,28 @@
         <v>10</v>
       </c>
       <c r="J27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>160</v>
       </c>
       <c r="K27" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6667.6</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>112.2</v>
       </c>
       <c r="E28" s="2">
@@ -1643,14 +1664,15 @@
         <v>6451.5</v>
       </c>
       <c r="F28" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G28" s="3">
+        <f t="shared" si="9"/>
         <v>44830</v>
       </c>
       <c r="H28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="I28" s="4">
@@ -1658,28 +1680,28 @@
         <v>10</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>170</v>
       </c>
       <c r="K28" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6621.5</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C29" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>112.2</v>
       </c>
       <c r="E29" s="2">
@@ -1687,14 +1709,15 @@
         <v>6395.4000000000005</v>
       </c>
       <c r="F29" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G29" s="3">
+        <f t="shared" si="9"/>
         <v>44831</v>
       </c>
       <c r="H29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="I29" s="4">
@@ -1702,28 +1725,28 @@
         <v>10</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="K29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6575.4000000000005</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>112.2</v>
       </c>
       <c r="E30" s="2">
@@ -1731,14 +1754,15 @@
         <v>6339.3</v>
       </c>
       <c r="F30" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G30" s="3">
+        <f t="shared" si="9"/>
         <v>44832</v>
       </c>
       <c r="H30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="I30" s="4">
@@ -1746,28 +1770,28 @@
         <v>10</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>190</v>
       </c>
       <c r="K30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6529.3</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C31" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>112.2</v>
       </c>
       <c r="E31" s="2">
@@ -1775,14 +1799,15 @@
         <v>6283.2</v>
       </c>
       <c r="F31" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G31" s="3">
+        <f t="shared" si="9"/>
         <v>44833</v>
       </c>
       <c r="H31" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="I31" s="4">
@@ -1790,28 +1815,28 @@
         <v>10</v>
       </c>
       <c r="J31" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="K31" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6483.2</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>112.2</v>
       </c>
       <c r="E32" s="2">
@@ -1819,14 +1844,15 @@
         <v>6227.1</v>
       </c>
       <c r="F32" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G32" s="3">
+        <f t="shared" si="9"/>
         <v>44834</v>
       </c>
       <c r="H32" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="I32" s="4">
@@ -1834,28 +1860,28 @@
         <v>10</v>
       </c>
       <c r="J32" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>210</v>
       </c>
       <c r="K32" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6437.1</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C33" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="8"/>
+        <f>1.1*102</f>
         <v>112.2</v>
       </c>
       <c r="E33" s="2">
@@ -1863,14 +1889,15 @@
         <v>6171</v>
       </c>
       <c r="F33" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G33" s="3">
+        <f t="shared" si="9"/>
         <v>44835</v>
       </c>
       <c r="H33" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="I33" s="4">
@@ -1878,28 +1905,28 @@
         <v>10</v>
       </c>
       <c r="J33" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>220</v>
       </c>
       <c r="K33" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6391</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C34" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="2">
-        <f>0.5*$A$1</f>
+        <f>0.5*102</f>
         <v>51</v>
       </c>
       <c r="E34" s="2">
@@ -1907,14 +1934,15 @@
         <v>2779.5</v>
       </c>
       <c r="F34" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G34" s="3">
+        <f t="shared" si="9"/>
         <v>44836</v>
       </c>
       <c r="H34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="I34" s="4">
@@ -1922,28 +1950,28 @@
         <v>10</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>230</v>
       </c>
       <c r="K34" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3009.5</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C35" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" ref="D35:D38" si="9">0.5*$A$1</f>
+        <f t="shared" ref="D35:D38" si="10">0.5*102</f>
         <v>51</v>
       </c>
       <c r="E35" s="2">
@@ -1951,14 +1979,15 @@
         <v>2754</v>
       </c>
       <c r="F35" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G35" s="3">
+        <f t="shared" si="9"/>
         <v>44837</v>
       </c>
       <c r="H35" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="I35" s="4">
@@ -1966,28 +1995,28 @@
         <v>10</v>
       </c>
       <c r="J35" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="K35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2994</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C36" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>51</v>
       </c>
       <c r="E36" s="2">
@@ -1995,14 +2024,15 @@
         <v>2728.5</v>
       </c>
       <c r="F36" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G36" s="3">
+        <f t="shared" si="9"/>
         <v>44838</v>
       </c>
       <c r="H36" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="I36" s="4">
@@ -2010,28 +2040,26 @@
         <v>10</v>
       </c>
       <c r="J36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="K36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2978.5</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="B37" s="2"/>
       <c r="C37" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>51</v>
       </c>
       <c r="E37" s="2">
@@ -2039,14 +2067,15 @@
         <v>2703</v>
       </c>
       <c r="F37" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G37" s="3">
+        <f t="shared" si="9"/>
         <v>44839</v>
       </c>
       <c r="H37" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="I37" s="4">
@@ -2054,28 +2083,28 @@
         <v>10</v>
       </c>
       <c r="J37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>260</v>
       </c>
       <c r="K37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2963</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>51</v>
       </c>
       <c r="E38" s="2">
@@ -2083,14 +2112,15 @@
         <v>2677.5</v>
       </c>
       <c r="F38" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G38" s="3">
+        <f t="shared" si="9"/>
         <v>44840</v>
       </c>
       <c r="H38" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="I38" s="4">
@@ -2098,11 +2128,11 @@
         <v>10</v>
       </c>
       <c r="J38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>270</v>
       </c>
       <c r="K38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2947.5</v>
       </c>
     </row>
@@ -2111,7 +2141,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B40" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C40" s="7">
         <f>SUM(K3:K38)</f>
@@ -2120,7 +2150,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B41" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C41" s="6">
         <f>AVERAGE(C3:C38)</f>
@@ -2138,7 +2168,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B43" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C43" s="6">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_102.xlsx
+++ b/LR3/table_1_102.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>№ квартиры</t>
   </si>
@@ -156,9 +156,6 @@
     <t>Шаймарданова</t>
   </si>
   <si>
-    <t>Куропаткин 2</t>
-  </si>
-  <si>
     <t>Общая сумма, руб.</t>
   </si>
   <si>
@@ -169,6 +166,12 @@
   </si>
   <si>
     <t>Максимальный срок просрочки, дней.</t>
+  </si>
+  <si>
+    <t>Куропаткин 1</t>
+  </si>
+  <si>
+    <t>Кузин</t>
   </si>
 </sst>
 </file>
@@ -465,7 +468,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="57" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2053,7 +2056,9 @@
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="B37" s="2"/>
+      <c r="B37" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="C37" s="2">
         <f t="shared" si="4"/>
         <v>53</v>
@@ -2097,7 +2102,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C38" s="2">
         <f t="shared" si="4"/>
@@ -2141,7 +2146,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B40" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C40" s="7">
         <f>SUM(K3:K38)</f>
@@ -2150,7 +2155,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B41" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C41" s="6">
         <f>AVERAGE(C3:C38)</f>
@@ -2159,7 +2164,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B42" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C42" s="6">
         <f>MAX(H3:H38)</f>
@@ -2168,7 +2173,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B43" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C43" s="6">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_102.xlsx
+++ b/LR3/table_1_102.xlsx
@@ -165,13 +165,13 @@
     <t>Максимальная сумма, руб.</t>
   </si>
   <si>
-    <t>Максимальный срок просрочки, дней.</t>
-  </si>
-  <si>
     <t>Куропаткин 1</t>
   </si>
   <si>
     <t>Кузин</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрочки, дней</t>
   </si>
 </sst>
 </file>
@@ -450,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="71" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="61" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -567,7 +567,7 @@
         <v>112.2</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E3:E38" si="4">C4*D4</f>
+        <f t="shared" ref="E4:E38" si="4">C4*D4</f>
         <v>7797.9000000000005</v>
       </c>
       <c r="F4" s="2">
@@ -2041,7 +2041,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="3"/>
@@ -2086,7 +2086,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="3"/>
@@ -2145,7 +2145,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C42" s="3">
         <f>MAX(H3:H38)</f>

--- a/LR3/table_1_102.xlsx
+++ b/LR3/table_1_102.xlsx
@@ -451,7 +451,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="61" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/LR3/table_1_102.xlsx
+++ b/LR3/table_1_102.xlsx
@@ -451,7 +451,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="61" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -521,7 +521,7 @@
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <f>1.1*A1</f>
+        <f>A1*1.1</f>
         <v>112.2</v>
       </c>
       <c r="E3" s="1">
@@ -535,7 +535,7 @@
         <v>44805</v>
       </c>
       <c r="H3" s="1">
-        <f>IF(G3&gt;F3, G3-F3, 0)</f>
+        <f>IF(G3&gt;F3,G3-F3,0)</f>
         <v>0</v>
       </c>
       <c r="I3" s="1">
@@ -579,7 +579,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H38" si="5">IF(G4&gt;F4, G4-F4, 0)</f>
+        <f t="shared" ref="H4:H38" si="5">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
